--- a/Sprint2 User Stories.xlsx
+++ b/Sprint2 User Stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="18015" windowHeight="8130"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="15600" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,60 +16,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>User Stories</t>
   </si>
   <si>
-    <t>As a team, we want to have a complete object heirarchy for the game.</t>
-  </si>
-  <si>
-    <t>As a team member, I want to create a bitmap font editor that supports kerning.</t>
-  </si>
-  <si>
-    <t>As a team member, I want to create a tile editor that meets base requirments</t>
-  </si>
-  <si>
     <t>As a programmer, I want to create and implement an tile engine that meets base requirements</t>
   </si>
   <si>
-    <t>As a team member, I want to implement collision detection with a visual response</t>
-  </si>
-  <si>
     <t>As a programmer, I want to implement/intergrate into the game with kerning.</t>
   </si>
   <si>
-    <t>As a team, we want a code profiler functioning and displaying after shutdown of application.</t>
-  </si>
-  <si>
     <t>As a team member, I want to have a rough, functional HUD on screen.</t>
   </si>
   <si>
-    <t>As a team member, I want player interactions with the level through hacking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a team member, I want to create an animation editor that meets base requirements. </t>
-  </si>
-  <si>
     <t>As a programmer, I want to create and implement an animation engine that meets base requirements.</t>
   </si>
   <si>
-    <t>As a team member, I want units moving and animating in game.</t>
-  </si>
-  <si>
-    <t>As a team member, I want an initial design of the hacking minigame functioning.</t>
-  </si>
-  <si>
-    <t>As a team member, I want enemies to be hackable and show hacked state.</t>
-  </si>
-  <si>
-    <t>As a team member, I want to implement a detection range for enemy units.</t>
-  </si>
-  <si>
-    <t>As a team, we want basic win/lose conditions implemented with consistant feedback.</t>
-  </si>
-  <si>
-    <t>As a team member, I want to have input working with keyboard/controller.</t>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Juno</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>As a player, I want enemies to be hackable and show hacked state.</t>
+  </si>
+  <si>
+    <t>As a programmer, I want to implement a detection range for enemy units.</t>
+  </si>
+  <si>
+    <t>As a programmer, we want basic win/lose conditions implemented with consistant feedback.</t>
+  </si>
+  <si>
+    <t>As a programmer, I want an initial design of the hacking minigame functioning.</t>
+  </si>
+  <si>
+    <t>As a programmer, I want units moving and animating in game.</t>
+  </si>
+  <si>
+    <t>As a player, I want player interactions with the level through hacking.</t>
+  </si>
+  <si>
+    <t>As a programmer, we want a code profiler functioning and displaying after shutdown of application.</t>
+  </si>
+  <si>
+    <t>As a programmer, I want to create a bitmap font editor that supports kerning.</t>
+  </si>
+  <si>
+    <t>As a team memeber, we want to have a complete object heirarchy for the game.</t>
+  </si>
+  <si>
+    <t>As a programmer, I want to implement collision detection with a visual response</t>
+  </si>
+  <si>
+    <t>As a programmer, I want to create a tile editor that meets base requirments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a programmer, I want to create an animation editor that meets base requirements. </t>
+  </si>
+  <si>
+    <t>As a programmer, I want to make an Event System.</t>
+  </si>
+  <si>
+    <t>As a programmer, I want to make a Message System.</t>
+  </si>
+  <si>
+    <t>As a team member, I want to have input working with keyboard.</t>
   </si>
 </sst>
 </file>
@@ -106,12 +124,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -135,6 +159,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:A23"/>
+  <dimension ref="A4:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -441,97 +467,404 @@
     <col min="1" max="1" width="104.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint2 User Stories.xlsx
+++ b/Sprint2 User Stories.xlsx
@@ -124,7 +124,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,8 +165,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +465,7 @@
   <dimension ref="A4:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -494,7 +500,7 @@
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
       <c r="D7">
@@ -514,7 +520,7 @@
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>10</v>
       </c>
       <c r="D8">
@@ -537,7 +543,7 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>5</v>
       </c>
       <c r="E9">
@@ -557,7 +563,7 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>5</v>
       </c>
       <c r="E10">
@@ -577,7 +583,7 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>10</v>
       </c>
       <c r="E11">
@@ -588,7 +594,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B12">
@@ -600,7 +606,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>3</v>
       </c>
       <c r="F12" t="s">
@@ -608,10 +614,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>3</v>
       </c>
       <c r="C13">
@@ -628,10 +634,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14">
@@ -648,7 +654,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B15">
@@ -660,7 +666,7 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" t="s">
@@ -668,7 +674,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -680,7 +686,7 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" t="s">
@@ -691,7 +697,7 @@
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17">
@@ -717,7 +723,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>3</v>
       </c>
       <c r="E18">
@@ -728,10 +734,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>3</v>
       </c>
       <c r="C19">
@@ -748,7 +754,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B20">
@@ -760,7 +766,7 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>3</v>
       </c>
       <c r="F20" t="s">
@@ -774,7 +780,7 @@
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="D21">
@@ -800,7 +806,7 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>3</v>
       </c>
       <c r="F22" t="s">
@@ -808,7 +814,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B23">
@@ -820,7 +826,7 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" t="s">
@@ -828,7 +834,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B24">
@@ -840,7 +846,7 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" t="s">
@@ -854,7 +860,7 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25">

--- a/Sprint2 User Stories.xlsx
+++ b/Sprint2 User Stories.xlsx
@@ -124,7 +124,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +143,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -157,16 +169,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,13 +479,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="104.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="104.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
@@ -494,13 +509,13 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
       <c r="D7">
@@ -514,13 +529,13 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="D8">
@@ -534,7 +549,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -543,7 +558,7 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9">
@@ -554,7 +569,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10">
@@ -563,7 +578,7 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
       <c r="E10">
@@ -574,7 +589,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B11">
@@ -583,7 +598,7 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>10</v>
       </c>
       <c r="E11">
@@ -606,7 +621,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>3</v>
       </c>
       <c r="F12" t="s">
@@ -614,10 +629,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
       <c r="C13">
@@ -637,7 +652,7 @@
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14">
@@ -666,7 +681,7 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" t="s">
@@ -686,7 +701,7 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" t="s">
@@ -694,10 +709,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4">
         <v>1</v>
       </c>
       <c r="C17">
@@ -714,7 +729,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B18">
@@ -723,7 +738,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18">
@@ -737,7 +752,7 @@
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>3</v>
       </c>
       <c r="C19">
@@ -766,7 +781,7 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>3</v>
       </c>
       <c r="F20" t="s">
@@ -774,13 +789,13 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>3</v>
       </c>
       <c r="D21">
@@ -794,7 +809,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B22">
@@ -806,7 +821,7 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>3</v>
       </c>
       <c r="F22" t="s">
@@ -826,7 +841,7 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" t="s">
@@ -846,7 +861,7 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>1</v>
       </c>
       <c r="F24" t="s">
@@ -854,13 +869,13 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>1</v>
       </c>
       <c r="D25">
